--- a/Project/Phase 2/Sprint 3/Burdown Chart.xlsx
+++ b/Project/Phase 2/Sprint 3/Burdown Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana Carolina Gadelha\IdeaProjects\ganttproject2\Project\Phase 2\Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5811034-6D69-478E-936A-BAC305AC123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89D40F4-A316-4FE9-8AF4-53DD2DF367F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,10 +687,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,13 +785,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -851,16 +851,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4</c:v>
+                  <c:v>8.6666666666666679</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8</c:v>
+                  <c:v>4.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,7 +1345,7 @@
   <dimension ref="B3:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J11" sqref="J11:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,15 +1435,17 @@
         <v>12</v>
       </c>
       <c r="D8" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" s="14">
         <v>1</v>
       </c>
       <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
@@ -1453,14 +1455,14 @@
         <v>13</v>
       </c>
       <c r="D9" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1487,11 +1489,11 @@
       </c>
       <c r="F11" s="19">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -1501,15 +1503,15 @@
       <c r="C12" s="34"/>
       <c r="D12" s="20">
         <f>SUM(D6:D11)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E12" s="21">
         <f t="shared" ref="E12:G12" si="1">D12-SUM(E6:E10)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12" s="22">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" s="22">
         <f t="shared" si="1"/>
@@ -1524,19 +1526,19 @@
       <c r="C13" s="36"/>
       <c r="D13" s="23">
         <f>D12</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E13" s="24">
-        <f>$D$13-($D$13/15*1)</f>
-        <v>8.4</v>
+        <f>$D$13-($D$13/3*1)</f>
+        <v>8.6666666666666679</v>
       </c>
       <c r="F13" s="25">
-        <f>$D$13-($D$13/15*2)</f>
-        <v>7.8</v>
+        <f>$D$13-($D$13/3*2)</f>
+        <v>4.3333333333333339</v>
       </c>
       <c r="G13" s="25">
-        <f>$D$13-($D$13/15*3)</f>
-        <v>7.2</v>
+        <f>$D$13-($D$13/3*3)</f>
+        <v>0</v>
       </c>
       <c r="S13" s="26"/>
     </row>
